--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagha\Documents\GitHub\Input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F8B128-17AA-4B33-B9BD-C8E4DEAB2BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DDBB17-2157-4D9E-8464-E1F87D4BAA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="4155" windowWidth="13275" windowHeight="11385" activeTab="1" xr2:uid="{53EDA81B-6CCA-4430-A769-0B4839FA4B37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{53EDA81B-6CCA-4430-A769-0B4839FA4B37}"/>
   </bookViews>
   <sheets>
     <sheet name="DG parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Load" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Nodal load" sheetId="3" r:id="rId3"/>
+    <sheet name="EV growth" sheetId="5" r:id="rId4"/>
+    <sheet name="CS_cap" sheetId="4" r:id="rId5"/>
+    <sheet name="Traffic" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>node</t>
   </si>
@@ -74,6 +77,21 @@
   <si>
     <t>2013 (kW)</t>
   </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
 </sst>
 </file>
 
@@ -108,10 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5883112D-6840-430B-8D9E-FE0CEA334220}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -977,782 +998,779 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56173F4A-76FF-4571-BCAB-38B249BDD26B}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M2" sqref="A2:XFD2"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>2.8945454744000001</v>
-      </c>
-      <c r="B1" s="2">
-        <v>2.7790949060000001</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2.7140626237999999</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2.6938465960000002</v>
-      </c>
-      <c r="E1" s="2">
-        <v>2.7065120592</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2.7805563056000002</v>
-      </c>
-      <c r="G1" s="2">
-        <v>2.8533827189999998</v>
-      </c>
-      <c r="H1" s="2">
-        <v>2.9963563132000002</v>
-      </c>
-      <c r="I1" s="2">
-        <v>3.1293436768</v>
-      </c>
-      <c r="J1" s="2">
-        <v>3.2516141099999998</v>
-      </c>
-      <c r="K1" s="2">
-        <v>3.3612190800000001</v>
-      </c>
-      <c r="L1" s="2">
-        <v>3.3789994418</v>
-      </c>
-      <c r="M1" s="2">
-        <v>3.3468486506000001</v>
-      </c>
-      <c r="N1" s="2">
-        <v>3.273535104</v>
-      </c>
-      <c r="O1" s="2">
-        <v>3.2881491</v>
-      </c>
-      <c r="P1" s="2">
-        <v>3.2394357799999902</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>3.2296931159999902</v>
-      </c>
-      <c r="R1" s="2">
-        <v>3.2394357799999902</v>
-      </c>
-      <c r="S1" s="2">
-        <v>3.2150791199999902</v>
-      </c>
-      <c r="T1" s="2">
-        <v>3.2197068853999902</v>
-      </c>
-      <c r="U1" s="2">
-        <v>3.3561041814000001</v>
-      </c>
-      <c r="V1" s="2">
-        <v>3.3731538433999901</v>
-      </c>
-      <c r="W1" s="2">
-        <v>3.1929145594000001</v>
-      </c>
-      <c r="X1" s="2">
-        <v>3.0241229056000001</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>2.8945454744000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2.8735987467999902</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2.7849405044000002</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.7630195103999902</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.7518154467999998</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2.7786077728</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2.8451014545999902</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2.9410666949999902</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3.0969493190000001</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3.2791371358000001</v>
-      </c>
-      <c r="J2" s="2">
-        <v>3.3456308176</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3.2749965036000002</v>
-      </c>
-      <c r="L2" s="2">
-        <v>3.2545369092</v>
-      </c>
-      <c r="M2" s="2">
-        <v>3.2335901815999901</v>
-      </c>
-      <c r="N2" s="2">
-        <v>3.1885303606000002</v>
-      </c>
-      <c r="O2" s="2">
-        <v>3.0029326113999901</v>
-      </c>
-      <c r="P2" s="2">
-        <v>2.989780015</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>2.9588470567999998</v>
-      </c>
-      <c r="R2" s="2">
-        <v>2.9746788857999902</v>
-      </c>
-      <c r="S2" s="2">
-        <v>3.0075603767999901</v>
-      </c>
-      <c r="T2" s="2">
-        <v>3.0825788896000001</v>
-      </c>
-      <c r="U2" s="2">
-        <v>3.2813292351999999</v>
-      </c>
-      <c r="V2" s="2">
-        <v>3.2654974062000002</v>
-      </c>
-      <c r="W2" s="2">
-        <v>3.1585716688000001</v>
-      </c>
-      <c r="X2" s="2">
-        <v>3.0397111680000002</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>2.8735987467999902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>3.3863064397999998</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3.3670646783999998</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.3427080184000002</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3.4243028294000002</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.4795924475999902</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3.7348502444</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4.2110229474</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4.3539965415999902</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4.2526728360000003</v>
-      </c>
-      <c r="J3" s="2">
-        <v>4.1321073689999901</v>
-      </c>
-      <c r="K3" s="2">
-        <v>3.9959536396000002</v>
-      </c>
-      <c r="L3" s="2">
-        <v>3.8322768844000001</v>
-      </c>
-      <c r="M3" s="2">
-        <v>3.7219412146000002</v>
-      </c>
-      <c r="N3" s="2">
-        <v>3.6656773299999998</v>
-      </c>
-      <c r="O3" s="2">
-        <v>3.5509574613999901</v>
-      </c>
-      <c r="P3" s="2">
-        <v>3.4620556524000001</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>3.4316098273999902</v>
-      </c>
-      <c r="R3" s="2">
-        <v>3.3892292390000001</v>
-      </c>
-      <c r="S3" s="2">
-        <v>3.3850886068000001</v>
-      </c>
-      <c r="T3" s="2">
-        <v>3.5166145707999998</v>
-      </c>
-      <c r="U3" s="2">
-        <v>3.6849190913999998</v>
-      </c>
-      <c r="V3" s="2">
-        <v>3.5787240537999998</v>
-      </c>
-      <c r="W3" s="2">
-        <v>3.3373495532000002</v>
-      </c>
-      <c r="X3" s="2">
-        <v>3.1856075613999901</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>3.3863064397999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3.0969493190000001</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3.0942700863999901</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.0324041699999902</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.0803867901999902</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.2445506786</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3.4998084754000001</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3.7765001329999999</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3.9533294846000002</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3.8583385105999999</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3.8132786896000002</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3.7570148049999998</v>
-      </c>
-      <c r="L4" s="2">
-        <v>3.6164768768000002</v>
-      </c>
-      <c r="M4" s="2">
-        <v>3.5643536243999998</v>
-      </c>
-      <c r="N4" s="2">
-        <v>3.5207552030000002</v>
-      </c>
-      <c r="O4" s="2">
-        <v>3.4688755171999999</v>
-      </c>
-      <c r="P4" s="2">
-        <v>3.3733974099999902</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>3.3609755134000001</v>
-      </c>
-      <c r="R4" s="2">
-        <v>3.4126116326</v>
-      </c>
-      <c r="S4" s="2">
-        <v>3.3680389447999901</v>
-      </c>
-      <c r="T4" s="2">
-        <v>3.4484159228000002</v>
-      </c>
-      <c r="U4" s="2">
-        <v>3.6539861332000001</v>
-      </c>
-      <c r="V4" s="2">
-        <v>3.5943123161999901</v>
-      </c>
-      <c r="W4" s="2">
-        <v>3.4211364635999901</v>
-      </c>
-      <c r="X4" s="2">
-        <v>3.1539439034000001</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>3.0969493190000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2.9505657923999902</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2.7985802340000001</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.7807998721999998</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.7284330531999998</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.8190398283999998</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3.0009840786000002</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3.3519635492000002</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3.5334206662000001</v>
-      </c>
-      <c r="I5" s="2">
-        <v>3.5163710041999998</v>
-      </c>
-      <c r="J5" s="2">
-        <v>3.528062201</v>
-      </c>
-      <c r="K5" s="2">
-        <v>3.6345008052000001</v>
-      </c>
-      <c r="L5" s="2">
-        <v>3.6069777794000002</v>
-      </c>
-      <c r="M5" s="2">
-        <v>3.5969915488000002</v>
-      </c>
-      <c r="N5" s="2">
-        <v>3.5748269881999901</v>
-      </c>
-      <c r="O5" s="2">
-        <v>3.5499831949999998</v>
-      </c>
-      <c r="P5" s="2">
-        <v>3.5114996721999998</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>3.4810538472000001</v>
-      </c>
-      <c r="R5" s="2">
-        <v>3.4581585868000002</v>
-      </c>
-      <c r="S5" s="2">
-        <v>3.4174829646</v>
-      </c>
-      <c r="T5" s="2">
-        <v>3.4053046346000002</v>
-      </c>
-      <c r="U5" s="2">
-        <v>3.5144224714000001</v>
-      </c>
-      <c r="V5" s="2">
-        <v>3.4223542966</v>
-      </c>
-      <c r="W5" s="2">
-        <v>3.2903411993999998</v>
-      </c>
-      <c r="X5" s="2">
-        <v>3.0779511242000002</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>2.9505657923999902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2.8494856533999902</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2.7559560790000002</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.7177161228000002</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.7118705244000001</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.7596095780000001</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.9145179356000002</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3.2864441337999901</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3.4428138910000001</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3.4942064435999902</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3.5417019305999902</v>
-      </c>
-      <c r="K6" s="2">
-        <v>3.5628922248000001</v>
-      </c>
-      <c r="L6" s="2">
-        <v>3.5132046383999902</v>
-      </c>
-      <c r="M6" s="2">
-        <v>3.4735032825999999</v>
-      </c>
-      <c r="N6" s="2">
-        <v>3.4389168254000002</v>
-      </c>
-      <c r="O6" s="2">
-        <v>3.3977540699999902</v>
-      </c>
-      <c r="P6" s="2">
-        <v>3.3361317202</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>3.3078779946000001</v>
-      </c>
-      <c r="R6" s="2">
-        <v>3.2888797998000001</v>
-      </c>
-      <c r="S6" s="2">
-        <v>3.3500150163999902</v>
-      </c>
-      <c r="T6" s="2">
-        <v>3.4250335291999998</v>
-      </c>
-      <c r="U6" s="2">
-        <v>3.4252770957999998</v>
-      </c>
-      <c r="V6" s="2">
-        <v>3.340515919</v>
-      </c>
-      <c r="W6" s="2">
-        <v>3.1926709928000001</v>
-      </c>
-      <c r="X6" s="2">
-        <v>3.0219308061999901</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>2.8494856533999902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>3.090860154</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3.0319170367999901</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.0073168101999999</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.0117010089999998</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3.1249594780000001</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3.2072849888000001</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3.3349138871999902</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3.4620556524000001</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3.5655714573999902</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3.5728784554000002</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3.3987283364</v>
-      </c>
-      <c r="L7" s="2">
-        <v>3.3641418791999902</v>
-      </c>
-      <c r="M7" s="2">
-        <v>3.2669588057999999</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3.1653915335999998</v>
-      </c>
-      <c r="O7" s="2">
-        <v>3.0847709889999901</v>
-      </c>
-      <c r="P7" s="2">
-        <v>3.0341091362000001</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>2.9914849812000002</v>
-      </c>
-      <c r="R7" s="2">
-        <v>3.0099960428000001</v>
-      </c>
-      <c r="S7" s="2">
-        <v>3.0540815974000002</v>
-      </c>
-      <c r="T7" s="2">
-        <v>3.1174089133999998</v>
-      </c>
-      <c r="U7" s="2">
-        <v>3.2133741537999998</v>
-      </c>
-      <c r="V7" s="2">
-        <v>3.1668529331999902</v>
-      </c>
-      <c r="W7" s="2">
-        <v>3.0496973986000002</v>
-      </c>
-      <c r="X7" s="2">
-        <v>2.9318111641999902</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>3.090860154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2.8446143213999902</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2.7939524686000001</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.7764156733999998</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.7798256058000002</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.7783642062</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2.8499727865999902</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2.9690768539999901</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3.1273951439999998</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3.2710994379999998</v>
-      </c>
-      <c r="J8" s="2">
-        <v>3.3590269805999902</v>
-      </c>
-      <c r="K8" s="2">
-        <v>3.3733974099999902</v>
-      </c>
-      <c r="L8" s="2">
-        <v>3.3670646783999998</v>
-      </c>
-      <c r="M8" s="2">
-        <v>3.3675518115999998</v>
-      </c>
-      <c r="N8" s="2">
-        <v>3.3424644518000002</v>
-      </c>
-      <c r="O8" s="2">
-        <v>3.3022759628</v>
-      </c>
-      <c r="P8" s="2">
-        <v>3.2757272033999998</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>3.3743716764</v>
-      </c>
-      <c r="R8" s="2">
-        <v>3.4004333026000002</v>
-      </c>
-      <c r="S8" s="2">
-        <v>3.5041926742</v>
-      </c>
-      <c r="T8" s="2">
-        <v>3.6761506937999902</v>
-      </c>
-      <c r="U8" s="2">
-        <v>3.7750387334000002</v>
-      </c>
-      <c r="V8" s="2">
-        <v>3.6858933577999902</v>
-      </c>
-      <c r="W8" s="2">
-        <v>3.6539861332000001</v>
-      </c>
-      <c r="X8" s="2">
-        <v>3.5054105072000001</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>2.8446143213999902</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2.8570362180000002</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2.8027208662</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2.7749542738000001</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.7800691724000002</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.7691086754000001</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2.9176843014</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3.162712301</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3.3302861217999902</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3.2944818316000002</v>
-      </c>
-      <c r="J9" s="2">
-        <v>3.3478229169999998</v>
-      </c>
-      <c r="K9" s="2">
-        <v>3.4048175014000002</v>
-      </c>
-      <c r="L9" s="2">
-        <v>3.4243028294000002</v>
-      </c>
-      <c r="M9" s="2">
-        <v>3.4243028294000002</v>
-      </c>
-      <c r="N9" s="2">
-        <v>3.3977540699999902</v>
-      </c>
-      <c r="O9" s="2">
-        <v>3.3475793504000002</v>
-      </c>
-      <c r="P9" s="2">
-        <v>3.3015452629999902</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>3.4001897360000002</v>
-      </c>
-      <c r="R9" s="2">
-        <v>3.4096888334000002</v>
-      </c>
-      <c r="S9" s="2">
-        <v>3.4588892865999998</v>
-      </c>
-      <c r="T9" s="2">
-        <v>3.4925014773999998</v>
-      </c>
-      <c r="U9" s="2">
-        <v>3.5353691989999998</v>
-      </c>
-      <c r="V9" s="2">
-        <v>3.3931263045999902</v>
-      </c>
-      <c r="W9" s="2">
-        <v>3.2240910841999901</v>
-      </c>
-      <c r="X9" s="2">
-        <v>3.0645549611999998</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>2.8570362180000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2.7939524686000001</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2.7359836178000001</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.6996921943999901</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2.7240488543999901</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2.7873761703999902</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2.8560619516000001</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3.167583633</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3.3410030522</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3.3268761894000001</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3.3768073423999998</v>
-      </c>
-      <c r="K10" s="2">
-        <v>3.4001897360000002</v>
-      </c>
-      <c r="L10" s="2">
-        <v>3.3755895094000001</v>
-      </c>
-      <c r="M10" s="2">
-        <v>3.3597576804</v>
-      </c>
-      <c r="N10" s="2">
-        <v>3.3422208852000002</v>
-      </c>
-      <c r="O10" s="2">
-        <v>3.2866877003999901</v>
-      </c>
-      <c r="P10" s="2">
-        <v>3.2053364559999902</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>3.2574597083999901</v>
-      </c>
-      <c r="R10" s="2">
-        <v>3.2654974062000002</v>
-      </c>
-      <c r="S10" s="2">
-        <v>3.3137235930000002</v>
-      </c>
-      <c r="T10" s="2">
-        <v>3.4026254019999902</v>
-      </c>
-      <c r="U10" s="2">
-        <v>3.4966421096000002</v>
-      </c>
-      <c r="V10" s="2">
-        <v>3.4250335291999998</v>
-      </c>
-      <c r="W10" s="2">
-        <v>3.2859570005999998</v>
-      </c>
-      <c r="X10" s="2">
-        <v>3.1417655733999998</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>2.7939524686000001</v>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="4">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="4">
+        <v>4</v>
+      </c>
+      <c r="N4" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="4">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="4">
+        <v>6</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="4">
+        <v>7</v>
+      </c>
+      <c r="N7" s="3">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="4">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="4">
+        <v>9</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="M10" s="4">
+        <v>10</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="M11" s="4">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="M12" s="4">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="M13" s="4">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="M14" s="4">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="M15" s="4">
+        <v>15</v>
+      </c>
+      <c r="N15">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="M16" s="4">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="4">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M18" s="4">
+        <v>18</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M19" s="4">
+        <v>19</v>
+      </c>
+      <c r="N19" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M20" s="4">
+        <v>20</v>
+      </c>
+      <c r="N20" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M21" s="4">
+        <v>21</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M22" s="4">
+        <v>22</v>
+      </c>
+      <c r="N22" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="4">
+        <v>23</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M24" s="4">
+        <v>24</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="4">
+        <v>25</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M26" s="4">
+        <v>26</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M27" s="4">
+        <v>27</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M28" s="4">
+        <v>28</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M29" s="4">
+        <v>29</v>
+      </c>
+      <c r="N29" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M30" s="4">
+        <v>30</v>
+      </c>
+      <c r="N30" s="3">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M31" s="4">
+        <v>31</v>
+      </c>
+      <c r="N31" s="3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M32" s="4">
+        <v>32</v>
+      </c>
+      <c r="N32" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M33" s="4">
+        <v>33</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C3D334-888E-4D3A-A860-D160D7123905}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E956F9-DE90-4E2D-AD69-A7CC0600FE84}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>7.6499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>5.5500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>4.9399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>1.2149999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>7.9500000000000005E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>8.2500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>5.2500000000000003E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EFC9E0-D8E9-41D0-9F62-34C8700710F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagha\Documents\GitHub\Input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DDBB17-2157-4D9E-8464-E1F87D4BAA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7752FF7B-E9F2-4FF6-85C2-D1FCB56116F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{53EDA81B-6CCA-4430-A769-0B4839FA4B37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{53EDA81B-6CCA-4430-A769-0B4839FA4B37}"/>
   </bookViews>
   <sheets>
     <sheet name="DG parameters" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="EV growth" sheetId="5" r:id="rId4"/>
     <sheet name="CS_cap" sheetId="4" r:id="rId5"/>
     <sheet name="Traffic" sheetId="6" r:id="rId6"/>
+    <sheet name="TT" sheetId="7" r:id="rId7"/>
+    <sheet name="Arrival_T" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="189">
   <si>
     <t>node</t>
   </si>
@@ -91,6 +93,522 @@
   </si>
   <si>
     <t>origin</t>
+  </si>
+  <si>
+    <t>traffic</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>(3, 2)</t>
+  </si>
+  <si>
+    <t>(3, 4)</t>
+  </si>
+  <si>
+    <t>(3, 6)</t>
+  </si>
+  <si>
+    <t>(3, 11)</t>
+  </si>
+  <si>
+    <t>(3, 13)</t>
+  </si>
+  <si>
+    <t>(3, 16)</t>
+  </si>
+  <si>
+    <t>(3, 19)</t>
+  </si>
+  <si>
+    <t>(3, 23)</t>
+  </si>
+  <si>
+    <t>(3, 25)</t>
+  </si>
+  <si>
+    <t>(3, 27)</t>
+  </si>
+  <si>
+    <t>(3, 30)</t>
+  </si>
+  <si>
+    <t>(3, 32)</t>
+  </si>
+  <si>
+    <t>(5, 2)</t>
+  </si>
+  <si>
+    <t>(5, 4)</t>
+  </si>
+  <si>
+    <t>(5, 6)</t>
+  </si>
+  <si>
+    <t>(5, 11)</t>
+  </si>
+  <si>
+    <t>(5, 13)</t>
+  </si>
+  <si>
+    <t>(5, 16)</t>
+  </si>
+  <si>
+    <t>(5, 19)</t>
+  </si>
+  <si>
+    <t>(5, 23)</t>
+  </si>
+  <si>
+    <t>(5, 25)</t>
+  </si>
+  <si>
+    <t>(5, 27)</t>
+  </si>
+  <si>
+    <t>(5, 30)</t>
+  </si>
+  <si>
+    <t>(5, 32)</t>
+  </si>
+  <si>
+    <t>(7, 2)</t>
+  </si>
+  <si>
+    <t>(7, 4)</t>
+  </si>
+  <si>
+    <t>(7, 6)</t>
+  </si>
+  <si>
+    <t>(7, 11)</t>
+  </si>
+  <si>
+    <t>(7, 13)</t>
+  </si>
+  <si>
+    <t>(7, 16)</t>
+  </si>
+  <si>
+    <t>(7, 19)</t>
+  </si>
+  <si>
+    <t>(7, 23)</t>
+  </si>
+  <si>
+    <t>(7, 25)</t>
+  </si>
+  <si>
+    <t>(7, 27)</t>
+  </si>
+  <si>
+    <t>(7, 30)</t>
+  </si>
+  <si>
+    <t>(7, 32)</t>
+  </si>
+  <si>
+    <t>(8, 2)</t>
+  </si>
+  <si>
+    <t>(8, 4)</t>
+  </si>
+  <si>
+    <t>(8, 6)</t>
+  </si>
+  <si>
+    <t>(8, 11)</t>
+  </si>
+  <si>
+    <t>(8, 13)</t>
+  </si>
+  <si>
+    <t>(8, 16)</t>
+  </si>
+  <si>
+    <t>(8, 19)</t>
+  </si>
+  <si>
+    <t>(8, 23)</t>
+  </si>
+  <si>
+    <t>(8, 25)</t>
+  </si>
+  <si>
+    <t>(8, 27)</t>
+  </si>
+  <si>
+    <t>(8, 30)</t>
+  </si>
+  <si>
+    <t>(8, 32)</t>
+  </si>
+  <si>
+    <t>(9, 2)</t>
+  </si>
+  <si>
+    <t>(9, 4)</t>
+  </si>
+  <si>
+    <t>(9, 6)</t>
+  </si>
+  <si>
+    <t>(9, 11)</t>
+  </si>
+  <si>
+    <t>(9, 13)</t>
+  </si>
+  <si>
+    <t>(9, 16)</t>
+  </si>
+  <si>
+    <t>(9, 19)</t>
+  </si>
+  <si>
+    <t>(9, 23)</t>
+  </si>
+  <si>
+    <t>(9, 25)</t>
+  </si>
+  <si>
+    <t>(9, 27)</t>
+  </si>
+  <si>
+    <t>(9, 30)</t>
+  </si>
+  <si>
+    <t>(9, 32)</t>
+  </si>
+  <si>
+    <t>(10, 2)</t>
+  </si>
+  <si>
+    <t>(10, 4)</t>
+  </si>
+  <si>
+    <t>(10, 6)</t>
+  </si>
+  <si>
+    <t>(10, 11)</t>
+  </si>
+  <si>
+    <t>(10, 13)</t>
+  </si>
+  <si>
+    <t>(10, 16)</t>
+  </si>
+  <si>
+    <t>(10, 19)</t>
+  </si>
+  <si>
+    <t>(10, 23)</t>
+  </si>
+  <si>
+    <t>(10, 25)</t>
+  </si>
+  <si>
+    <t>(10, 27)</t>
+  </si>
+  <si>
+    <t>(10, 30)</t>
+  </si>
+  <si>
+    <t>(10, 32)</t>
+  </si>
+  <si>
+    <t>(12, 2)</t>
+  </si>
+  <si>
+    <t>(12, 4)</t>
+  </si>
+  <si>
+    <t>(12, 6)</t>
+  </si>
+  <si>
+    <t>(12, 11)</t>
+  </si>
+  <si>
+    <t>(12, 13)</t>
+  </si>
+  <si>
+    <t>(12, 16)</t>
+  </si>
+  <si>
+    <t>(12, 19)</t>
+  </si>
+  <si>
+    <t>(12, 23)</t>
+  </si>
+  <si>
+    <t>(12, 25)</t>
+  </si>
+  <si>
+    <t>(12, 27)</t>
+  </si>
+  <si>
+    <t>(12, 30)</t>
+  </si>
+  <si>
+    <t>(12, 32)</t>
+  </si>
+  <si>
+    <t>(15, 2)</t>
+  </si>
+  <si>
+    <t>(15, 4)</t>
+  </si>
+  <si>
+    <t>(15, 6)</t>
+  </si>
+  <si>
+    <t>(15, 11)</t>
+  </si>
+  <si>
+    <t>(15, 13)</t>
+  </si>
+  <si>
+    <t>(15, 16)</t>
+  </si>
+  <si>
+    <t>(15, 19)</t>
+  </si>
+  <si>
+    <t>(15, 23)</t>
+  </si>
+  <si>
+    <t>(15, 25)</t>
+  </si>
+  <si>
+    <t>(15, 27)</t>
+  </si>
+  <si>
+    <t>(15, 30)</t>
+  </si>
+  <si>
+    <t>(15, 32)</t>
+  </si>
+  <si>
+    <t>(17, 2)</t>
+  </si>
+  <si>
+    <t>(17, 4)</t>
+  </si>
+  <si>
+    <t>(17, 6)</t>
+  </si>
+  <si>
+    <t>(17, 11)</t>
+  </si>
+  <si>
+    <t>(17, 13)</t>
+  </si>
+  <si>
+    <t>(17, 16)</t>
+  </si>
+  <si>
+    <t>(17, 19)</t>
+  </si>
+  <si>
+    <t>(17, 23)</t>
+  </si>
+  <si>
+    <t>(17, 25)</t>
+  </si>
+  <si>
+    <t>(17, 27)</t>
+  </si>
+  <si>
+    <t>(17, 30)</t>
+  </si>
+  <si>
+    <t>(17, 32)</t>
+  </si>
+  <si>
+    <t>(18, 2)</t>
+  </si>
+  <si>
+    <t>(18, 4)</t>
+  </si>
+  <si>
+    <t>(18, 6)</t>
+  </si>
+  <si>
+    <t>(18, 11)</t>
+  </si>
+  <si>
+    <t>(18, 13)</t>
+  </si>
+  <si>
+    <t>(18, 16)</t>
+  </si>
+  <si>
+    <t>(18, 19)</t>
+  </si>
+  <si>
+    <t>(18, 23)</t>
+  </si>
+  <si>
+    <t>(18, 25)</t>
+  </si>
+  <si>
+    <t>(18, 27)</t>
+  </si>
+  <si>
+    <t>(18, 30)</t>
+  </si>
+  <si>
+    <t>(18, 32)</t>
+  </si>
+  <si>
+    <t>(26, 2)</t>
+  </si>
+  <si>
+    <t>(26, 4)</t>
+  </si>
+  <si>
+    <t>(26, 6)</t>
+  </si>
+  <si>
+    <t>(26, 11)</t>
+  </si>
+  <si>
+    <t>(26, 13)</t>
+  </si>
+  <si>
+    <t>(26, 16)</t>
+  </si>
+  <si>
+    <t>(26, 19)</t>
+  </si>
+  <si>
+    <t>(26, 23)</t>
+  </si>
+  <si>
+    <t>(26, 25)</t>
+  </si>
+  <si>
+    <t>(26, 27)</t>
+  </si>
+  <si>
+    <t>(26, 30)</t>
+  </si>
+  <si>
+    <t>(26, 32)</t>
+  </si>
+  <si>
+    <t>(28, 2)</t>
+  </si>
+  <si>
+    <t>(28, 4)</t>
+  </si>
+  <si>
+    <t>(28, 6)</t>
+  </si>
+  <si>
+    <t>(28, 11)</t>
+  </si>
+  <si>
+    <t>(28, 13)</t>
+  </si>
+  <si>
+    <t>(28, 16)</t>
+  </si>
+  <si>
+    <t>(28, 19)</t>
+  </si>
+  <si>
+    <t>(28, 23)</t>
+  </si>
+  <si>
+    <t>(28, 25)</t>
+  </si>
+  <si>
+    <t>(28, 27)</t>
+  </si>
+  <si>
+    <t>(28, 30)</t>
+  </si>
+  <si>
+    <t>(28, 32)</t>
+  </si>
+  <si>
+    <t>(29, 2)</t>
+  </si>
+  <si>
+    <t>(29, 4)</t>
+  </si>
+  <si>
+    <t>(29, 6)</t>
+  </si>
+  <si>
+    <t>(29, 11)</t>
+  </si>
+  <si>
+    <t>(29, 13)</t>
+  </si>
+  <si>
+    <t>(29, 16)</t>
+  </si>
+  <si>
+    <t>(29, 19)</t>
+  </si>
+  <si>
+    <t>(29, 23)</t>
+  </si>
+  <si>
+    <t>(29, 25)</t>
+  </si>
+  <si>
+    <t>(29, 27)</t>
+  </si>
+  <si>
+    <t>(29, 30)</t>
+  </si>
+  <si>
+    <t>(29, 32)</t>
+  </si>
+  <si>
+    <t>(31, 2)</t>
+  </si>
+  <si>
+    <t>(31, 4)</t>
+  </si>
+  <si>
+    <t>(31, 6)</t>
+  </si>
+  <si>
+    <t>(31, 11)</t>
+  </si>
+  <si>
+    <t>(31, 13)</t>
+  </si>
+  <si>
+    <t>(31, 16)</t>
+  </si>
+  <si>
+    <t>(31, 19)</t>
+  </si>
+  <si>
+    <t>(31, 23)</t>
+  </si>
+  <si>
+    <t>(31, 25)</t>
+  </si>
+  <si>
+    <t>(31, 27)</t>
+  </si>
+  <si>
+    <t>(31, 30)</t>
+  </si>
+  <si>
+    <t>(31, 32)</t>
+  </si>
+  <si>
+    <t>tt (minutes)</t>
+  </si>
+  <si>
+    <t>CDF</t>
   </si>
 </sst>
 </file>
@@ -557,7 +1075,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,15 +2280,1754 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EFC9E0-D8E9-41D0-9F62-34C8700710F6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <v>8</v>
+      </c>
+      <c r="O1">
+        <v>9</v>
+      </c>
+      <c r="P1">
+        <v>10</v>
+      </c>
+      <c r="Q1">
+        <v>12</v>
+      </c>
+      <c r="R1">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>26</v>
+      </c>
+      <c r="V1">
+        <v>28</v>
+      </c>
+      <c r="W1">
+        <v>29</v>
+      </c>
+      <c r="X1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CC8396-893D-4A0F-B609-45E7D9D15BCC}">
+  <dimension ref="A1:B169"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158:XFD158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>2.1258389367880199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.88847448979591803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>14.714117708333299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>7.5509028371784002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>8.2233000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>34.0891439785998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>32.754960501956703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>31.732861122112499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>25.902051883173002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>28.8104137449244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>25.915611188132001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>15.9819057379583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>3.8598938910646798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>0.703398717948718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>6.2843445692883897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>6.1558251863812599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>17.110666666666599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>33.254372139466298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>18.879555555555498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>30.756333801528601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>33.537750000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>27.839471266030799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>24.912746474499901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>14.610442555447399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>7.0512231729749999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>2.2096533177402602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>4.22183333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>7.5821904761904699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>30.705683272832601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>10.155166666666601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>3.6861944444444399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>27.480795339300698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34">
+        <v>5.3051777286135602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35">
+        <v>8.82114814814814</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36">
+        <v>21.6265040794814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <v>11.119431953134001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>24.85030827097</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39">
+        <v>21.229890953836801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40">
+        <v>1.32283883647798</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41">
+        <v>5.6892222222222202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42">
+        <v>18.471333333333298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>12.2641666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44">
+        <v>1.7007303921568599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45">
+        <v>10.5875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46">
+        <v>3.18221391076115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <v>6.5364500000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48">
+        <v>7.4900568166769199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49">
+        <v>13.702487182141001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50">
+        <v>25.024343723033699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51">
+        <v>2.4295669326241098</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52">
+        <v>13.4920470347648</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53">
+        <v>3.41346969696969</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54">
+        <v>19.143939393939299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55">
+        <v>10.940091695589899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56">
+        <v>12.220666666666601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57">
+        <v>10.1125566427731</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58">
+        <v>7.9743333333333304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59">
+        <v>4.8517333333333301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60">
+        <v>6.6291580442959903</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61">
+        <v>13.2410085490519</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62">
+        <v>7.2018844487613896</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63">
+        <v>4.7748942457103798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64">
+        <v>4.4205438818565401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65">
+        <v>2.7795476190476198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66">
+        <v>34.738228951533998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67">
+        <v>33.921301179545097</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68">
+        <v>32.207235296245102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69">
+        <v>31.088715254456702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70">
+        <v>6.8390833333333303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71">
+        <v>28.219493024359799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72">
+        <v>25.249186995120201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73">
+        <v>7.358673553719</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74">
+        <v>41.273763210794002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75">
+        <v>13.4509365079365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76">
+        <v>17.765503058103899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77">
+        <v>41.337424748772897</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78">
+        <v>1.77152244508118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79">
+        <v>5.6116666666666601</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80">
+        <v>10.6360416666666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81">
+        <v>4.2440058548009301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82">
+        <v>8.7031666666666592</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83">
+        <v>12.0337413972518</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84">
+        <v>4.4325277777777696</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85">
+        <v>6.2922132435465699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86">
+        <v>33.685939431054898</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87">
+        <v>29.485213982886101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88">
+        <v>34.087762382184103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89">
+        <v>33.381483918762399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90">
+        <v>5.1210507707467698</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91">
+        <v>1.92329451017954</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92">
+        <v>1.86159362314953</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93">
+        <v>2.4940409029788002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94">
+        <v>6.4622256328812604</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95">
+        <v>4.14535094945722</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96">
+        <v>6.9769102866793098</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97">
+        <v>18.598228845805899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98">
+        <v>36.818306420971297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99">
+        <v>32.568544317123099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100">
+        <v>37.0806512214291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101">
+        <v>36.270279155273897</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102">
+        <v>5.3485355329949202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103">
+        <v>1.53125447570332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104">
+        <v>9.2539710144927501</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105">
+        <v>4.1114844388021199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106">
+        <v>9.4934560290776098</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107">
+        <v>6.8023073021154303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108">
+        <v>8.5344999999999995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109">
+        <v>21.357667851994901</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110">
+        <v>35.725279698663698</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111">
+        <v>31.408256379334102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112">
+        <v>35.836645469051199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113">
+        <v>34.965133423491601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114">
+        <v>6.4369019185389398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115">
+        <v>4.9308999999999896</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116">
+        <v>10.5806075268817</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117">
+        <v>2.7008181039335799</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118">
+        <v>8.3485885402183104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119">
+        <v>5.5093285217071202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120">
+        <v>8.4797958600888403</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121">
+        <v>20.0117236458611</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122">
+        <v>28.5779473089204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123">
+        <v>24.221277358873301</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124">
+        <v>28.673369537532501</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>142</v>
+      </c>
+      <c r="B125">
+        <v>6.4294444444444396</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126">
+        <v>9.4656241554416596</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127">
+        <v>7.4254460429229798</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>145</v>
+      </c>
+      <c r="B128">
+        <v>9.5669166666666605</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129">
+        <v>12.155509259259199</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130">
+        <v>6.44343729372937</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131">
+        <v>1.5113904061624599</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>149</v>
+      </c>
+      <c r="B132">
+        <v>1.5453361321841701</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133">
+        <v>2.6911190476190399</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>151</v>
+      </c>
+      <c r="B134">
+        <v>31.3784379136649</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135">
+        <v>27.018936772067999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>153</v>
+      </c>
+      <c r="B136">
+        <v>17.592083333333299</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137">
+        <v>30.585873621835699</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138">
+        <v>0.61863402777777698</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>156</v>
+      </c>
+      <c r="B139">
+        <v>6.9383333333333299</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>157</v>
+      </c>
+      <c r="B140">
+        <v>10.907592592592501</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141">
+        <v>11.8993357314148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>159</v>
+      </c>
+      <c r="B142">
+        <v>5.9012518518518498</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143">
+        <v>2.2807471819645699</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>161</v>
+      </c>
+      <c r="B144">
+        <v>6.5815136363636304</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>162</v>
+      </c>
+      <c r="B145">
+        <v>8.8746285714285698</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146">
+        <v>31.159468649651501</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147">
+        <v>26.639164064466499</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>165</v>
+      </c>
+      <c r="B148">
+        <v>30.780700442152199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>166</v>
+      </c>
+      <c r="B149">
+        <v>29.733012635658</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>167</v>
+      </c>
+      <c r="B150">
+        <v>3.0458333333333298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>168</v>
+      </c>
+      <c r="B151">
+        <v>6.68552000235427</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152">
+        <v>4.0618602795720298</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153">
+        <v>1.46999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154">
+        <v>1.2207421875</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>172</v>
+      </c>
+      <c r="B155">
+        <v>10.146666666666601</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156">
+        <v>1.9461803030303</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>174</v>
+      </c>
+      <c r="B157">
+        <v>3.7726378205128199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158">
+        <v>25.833206711376999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>176</v>
+      </c>
+      <c r="B159">
+        <v>21.2813361835519</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160">
+        <v>5.7517634408602101</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>178</v>
+      </c>
+      <c r="B161">
+        <v>24.494625448321099</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>179</v>
+      </c>
+      <c r="B162">
+        <v>6.7002499999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>180</v>
+      </c>
+      <c r="B163">
+        <v>11.0038044130714</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>181</v>
+      </c>
+      <c r="B164">
+        <v>8.9523354113893792</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>182</v>
+      </c>
+      <c r="B165">
+        <v>4.7544018264840098</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>183</v>
+      </c>
+      <c r="B166">
+        <v>6.6535624999999996</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>184</v>
+      </c>
+      <c r="B167">
+        <v>5.0106925213219702</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>185</v>
+      </c>
+      <c r="B168">
+        <v>8.2336666666666591</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>186</v>
+      </c>
+      <c r="B169">
+        <v>1.1184762796504299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E846F04-C972-4653-84D1-6362E4E0454D}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.912137E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B3">
+        <v>2.9147639999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B4">
+        <v>3.4723800000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B5">
+        <v>3.737654E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B6">
+        <v>7.4352460000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="B7">
+        <v>1.8258417999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>4.8662045000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B9">
+        <v>0.11759534200000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B10">
+        <v>0.177358826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B11">
+        <v>0.23643151500000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B12">
+        <v>0.30368329999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B13">
+        <v>0.37756801299999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B14">
+        <v>0.45450175100000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B15">
+        <v>0.523779361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B16">
+        <v>0.59646438700000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B17">
+        <v>0.67718883399999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B18">
+        <v>0.75509596400000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B19">
+        <v>0.83371337899999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B20">
+        <v>0.89368366799999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B21">
+        <v>0.93526777500000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B22">
+        <v>0.96545701799999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B23">
+        <v>0.98451991900000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B24">
+        <v>0.99470318599999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
